--- a/data/pca/factorExposure/factorExposure_2018-04-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.009533219429654358</v>
+        <v>-0.01901506778350313</v>
       </c>
       <c r="C2">
-        <v>0.02445644201927971</v>
+        <v>0.01816408923359381</v>
       </c>
       <c r="D2">
-        <v>-0.03224389045347633</v>
+        <v>0.03032896977931561</v>
       </c>
       <c r="E2">
-        <v>-0.01651108422994399</v>
+        <v>-0.01822460170668239</v>
       </c>
       <c r="F2">
-        <v>0.103950652579054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.00625229360458364</v>
+      </c>
+      <c r="G2">
+        <v>-0.03826811732849674</v>
+      </c>
+      <c r="H2">
+        <v>-0.04632853597334373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0866944869514702</v>
+        <v>-0.07265858840519128</v>
       </c>
       <c r="C3">
-        <v>0.04934290803068789</v>
+        <v>-0.01091257871912305</v>
       </c>
       <c r="D3">
-        <v>-0.04550353861822967</v>
+        <v>0.0769932143594864</v>
       </c>
       <c r="E3">
-        <v>0.03256954318373448</v>
+        <v>-0.01123762361222304</v>
       </c>
       <c r="F3">
-        <v>0.3678107125231078</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.008958709955613616</v>
+      </c>
+      <c r="G3">
+        <v>-0.1585401827862481</v>
+      </c>
+      <c r="H3">
+        <v>-0.1302301277831287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04637140949835055</v>
+        <v>-0.03925857228630378</v>
       </c>
       <c r="C4">
-        <v>0.01227169495558267</v>
+        <v>0.005998405621232568</v>
       </c>
       <c r="D4">
-        <v>-0.02473530996526594</v>
+        <v>0.06460127904106736</v>
       </c>
       <c r="E4">
-        <v>-0.04616776099491251</v>
+        <v>0.01917003288889704</v>
       </c>
       <c r="F4">
-        <v>0.06189531992992549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.0422708623373013</v>
+      </c>
+      <c r="G4">
+        <v>-0.0384132008200013</v>
+      </c>
+      <c r="H4">
+        <v>-0.05658913668550471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03388451637138326</v>
+        <v>-0.02461406382136891</v>
       </c>
       <c r="C6">
-        <v>0.01311758589775192</v>
+        <v>0.002120676018712566</v>
       </c>
       <c r="D6">
-        <v>-0.02150791242519727</v>
+        <v>0.06229273907184323</v>
       </c>
       <c r="E6">
-        <v>-0.02542690964890109</v>
+        <v>0.005148803814489537</v>
       </c>
       <c r="F6">
-        <v>0.009296162429052988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03110209687919104</v>
+      </c>
+      <c r="G6">
+        <v>-0.01058480012519646</v>
+      </c>
+      <c r="H6">
+        <v>-0.0639533618509283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03824550887444289</v>
+        <v>-0.01198258610950017</v>
       </c>
       <c r="C7">
-        <v>-0.02938589023450541</v>
+        <v>0.004141078541961954</v>
       </c>
       <c r="D7">
-        <v>-0.03010001775449121</v>
+        <v>0.03669306552073222</v>
       </c>
       <c r="E7">
-        <v>-0.03106027783416666</v>
+        <v>0.04442968548011943</v>
       </c>
       <c r="F7">
-        <v>0.04102708654897811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.0003339733098960958</v>
+      </c>
+      <c r="G7">
+        <v>-0.02101687294639077</v>
+      </c>
+      <c r="H7">
+        <v>-0.03888913835442886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01871425151861946</v>
+        <v>-0.003652902958521656</v>
       </c>
       <c r="C8">
-        <v>0.003982398635745248</v>
+        <v>-0.001648583838644402</v>
       </c>
       <c r="D8">
-        <v>-0.03612849412313807</v>
+        <v>0.01534057711534241</v>
       </c>
       <c r="E8">
-        <v>-0.035726626209744</v>
+        <v>0.00926438785035855</v>
       </c>
       <c r="F8">
-        <v>0.06910653312171143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.0155868744481956</v>
+      </c>
+      <c r="G8">
+        <v>-0.03576039264024532</v>
+      </c>
+      <c r="H8">
+        <v>-0.03817210616985844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03439301342953147</v>
+        <v>-0.03069207169374205</v>
       </c>
       <c r="C9">
-        <v>0.008495734206185502</v>
+        <v>0.00235360076382011</v>
       </c>
       <c r="D9">
-        <v>-0.03178944091104906</v>
+        <v>0.04742394441696567</v>
       </c>
       <c r="E9">
-        <v>-0.03494106135313422</v>
+        <v>0.008077132961390275</v>
       </c>
       <c r="F9">
-        <v>0.07930986733320379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01880587484048147</v>
+      </c>
+      <c r="G9">
+        <v>-0.041083702394276</v>
+      </c>
+      <c r="H9">
+        <v>-0.05713102344639354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03830486247810428</v>
+        <v>-0.1273742014828668</v>
       </c>
       <c r="C10">
-        <v>0.003641636129029245</v>
+        <v>-0.00695276146328253</v>
       </c>
       <c r="D10">
-        <v>0.1165827042441041</v>
+        <v>-0.1560911059510907</v>
       </c>
       <c r="E10">
-        <v>0.1034255797801227</v>
+        <v>-0.0001952235177021942</v>
       </c>
       <c r="F10">
-        <v>0.06586616605111288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03600677104957751</v>
+      </c>
+      <c r="G10">
+        <v>-0.03289823466842839</v>
+      </c>
+      <c r="H10">
+        <v>0.0002519512887295956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02874128995690264</v>
+        <v>-0.01714505153774904</v>
       </c>
       <c r="C11">
-        <v>0.01992998016287162</v>
+        <v>-0.00913949493947221</v>
       </c>
       <c r="D11">
-        <v>-0.03105050742674051</v>
+        <v>0.05011311767305644</v>
       </c>
       <c r="E11">
-        <v>-0.03135263908658387</v>
+        <v>-0.002001878803172807</v>
       </c>
       <c r="F11">
-        <v>0.03004517223804692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.0117479282079618</v>
+      </c>
+      <c r="G11">
+        <v>-0.02195609573718058</v>
+      </c>
+      <c r="H11">
+        <v>-0.05098411239541402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03991916921985597</v>
+        <v>-0.02092463539891351</v>
       </c>
       <c r="C12">
-        <v>0.01844362223974906</v>
+        <v>-0.005345310967579326</v>
       </c>
       <c r="D12">
-        <v>-0.02302834751701337</v>
+        <v>0.04875230617691716</v>
       </c>
       <c r="E12">
-        <v>-0.03779571295504842</v>
+        <v>0.01106213232483427</v>
       </c>
       <c r="F12">
-        <v>0.005727569558829838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01336633394664273</v>
+      </c>
+      <c r="G12">
+        <v>-0.004354780177178511</v>
+      </c>
+      <c r="H12">
+        <v>-0.02181937257910165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01006004273442418</v>
+        <v>-0.02436633513304829</v>
       </c>
       <c r="C13">
-        <v>0.02050642448793556</v>
+        <v>0.0144163037767822</v>
       </c>
       <c r="D13">
-        <v>-0.013286089862588</v>
+        <v>0.02494501958803898</v>
       </c>
       <c r="E13">
-        <v>-0.01662826430337519</v>
+        <v>-0.01219196375558423</v>
       </c>
       <c r="F13">
-        <v>0.07712871318262175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02198254369900552</v>
+      </c>
+      <c r="G13">
+        <v>-0.05661906250742613</v>
+      </c>
+      <c r="H13">
+        <v>-0.07911244471646654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02176266338928251</v>
+        <v>-0.0140118571851602</v>
       </c>
       <c r="C14">
-        <v>-0.002277905476488525</v>
+        <v>0.001727542606486448</v>
       </c>
       <c r="D14">
-        <v>-0.01833165824434786</v>
+        <v>0.01769075826663728</v>
       </c>
       <c r="E14">
-        <v>-0.0304312247380601</v>
+        <v>0.0150938200542548</v>
       </c>
       <c r="F14">
-        <v>0.05190348714588363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01154805061661606</v>
+      </c>
+      <c r="G14">
+        <v>-0.03951568076448302</v>
+      </c>
+      <c r="H14">
+        <v>-0.01289200522123977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0288311149711811</v>
+        <v>-0.01954132457010972</v>
       </c>
       <c r="C16">
-        <v>0.01872484657026154</v>
+        <v>-0.008831612724555881</v>
       </c>
       <c r="D16">
-        <v>-0.0339645957645629</v>
+        <v>0.041720758572948</v>
       </c>
       <c r="E16">
-        <v>-0.035972118050513</v>
+        <v>0.002533065212164693</v>
       </c>
       <c r="F16">
-        <v>0.02958911773519149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01386764490452319</v>
+      </c>
+      <c r="G16">
+        <v>-0.0184753352286391</v>
+      </c>
+      <c r="H16">
+        <v>-0.03811295547468108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03146233548342955</v>
+        <v>-0.02175353427206219</v>
       </c>
       <c r="C19">
-        <v>0.01930227184915584</v>
+        <v>0.002206017038536998</v>
       </c>
       <c r="D19">
-        <v>-0.03022884387477113</v>
+        <v>0.04625720024579454</v>
       </c>
       <c r="E19">
-        <v>-0.03737515902559391</v>
+        <v>0.007112615457510569</v>
       </c>
       <c r="F19">
-        <v>0.0882866835914926</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.0244881413541478</v>
+      </c>
+      <c r="G19">
+        <v>-0.05408820803865251</v>
+      </c>
+      <c r="H19">
+        <v>-0.06054036950714625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0009060009344594829</v>
+        <v>-0.00704319620517586</v>
       </c>
       <c r="C20">
-        <v>-0.005842372094571831</v>
+        <v>0.006114213026703896</v>
       </c>
       <c r="D20">
-        <v>-0.01344745914973496</v>
+        <v>0.02269378319633365</v>
       </c>
       <c r="E20">
-        <v>-0.0227777678505335</v>
+        <v>0.003860198288272714</v>
       </c>
       <c r="F20">
-        <v>0.06745494723069032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01286892365501638</v>
+      </c>
+      <c r="G20">
+        <v>-0.05091468991888222</v>
+      </c>
+      <c r="H20">
+        <v>-0.03060020031236448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01542078844828636</v>
+        <v>-0.01192405242849322</v>
       </c>
       <c r="C21">
-        <v>-0.01601621625470855</v>
+        <v>0.007492556982617108</v>
       </c>
       <c r="D21">
-        <v>-0.03752678083458948</v>
+        <v>0.02741834827594258</v>
       </c>
       <c r="E21">
-        <v>-0.01942865106285229</v>
+        <v>0.01759737038265</v>
       </c>
       <c r="F21">
-        <v>0.02844735591003411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.00456407088656823</v>
+      </c>
+      <c r="G21">
+        <v>-0.04471819738465472</v>
+      </c>
+      <c r="H21">
+        <v>-0.04267392147366311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02660156772802141</v>
+        <v>-0.01467898760316756</v>
       </c>
       <c r="C24">
-        <v>0.01697155520172969</v>
+        <v>-0.003478834640685311</v>
       </c>
       <c r="D24">
-        <v>-0.01592329574687153</v>
+        <v>0.04409948814884174</v>
       </c>
       <c r="E24">
-        <v>-0.02459119060824902</v>
+        <v>0.0007949531988887637</v>
       </c>
       <c r="F24">
-        <v>0.03330782346559683</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.0100671275558599</v>
+      </c>
+      <c r="G24">
+        <v>-0.01352254362544344</v>
+      </c>
+      <c r="H24">
+        <v>-0.046844022449322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03048857043508435</v>
+        <v>-0.02678361949901714</v>
       </c>
       <c r="C25">
-        <v>0.01584563472188505</v>
+        <v>-0.001010147599506443</v>
       </c>
       <c r="D25">
-        <v>-0.03096905856601113</v>
+        <v>0.04710512202382073</v>
       </c>
       <c r="E25">
-        <v>-0.02779793520437946</v>
+        <v>0.006252167964791405</v>
       </c>
       <c r="F25">
-        <v>0.03529020015365866</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01760041311827591</v>
+      </c>
+      <c r="G25">
+        <v>-0.01753187817517022</v>
+      </c>
+      <c r="H25">
+        <v>-0.04467121724067439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01813548061199557</v>
+        <v>-0.01430943262580492</v>
       </c>
       <c r="C26">
-        <v>0.01094370289979629</v>
+        <v>0.0193573080888822</v>
       </c>
       <c r="D26">
-        <v>-0.0243919484217669</v>
+        <v>0.01049081674767176</v>
       </c>
       <c r="E26">
-        <v>-0.004828295817125755</v>
+        <v>0.0008013813871174552</v>
       </c>
       <c r="F26">
-        <v>0.0562362698057526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.001010795236624316</v>
+      </c>
+      <c r="G26">
+        <v>-0.02704964679735529</v>
+      </c>
+      <c r="H26">
+        <v>-0.02539428053352679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.04260642337353943</v>
+        <v>-0.01693396617863782</v>
       </c>
       <c r="C27">
-        <v>0.02019185340629714</v>
+        <v>-0.005967682626217512</v>
       </c>
       <c r="D27">
-        <v>0.001682869999505531</v>
+        <v>0.01579901582859358</v>
       </c>
       <c r="E27">
-        <v>-0.03501183661474977</v>
+        <v>0.00658599248220315</v>
       </c>
       <c r="F27">
-        <v>0.02027339296130524</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.00865117778677202</v>
+      </c>
+      <c r="G27">
+        <v>-0.006552909264800807</v>
+      </c>
+      <c r="H27">
+        <v>0.000444254690039901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06528746605108396</v>
+        <v>-0.1752454113874069</v>
       </c>
       <c r="C28">
-        <v>0.006664528035569709</v>
+        <v>0.002171041390559186</v>
       </c>
       <c r="D28">
-        <v>0.1526450153116557</v>
+        <v>-0.1982401004618625</v>
       </c>
       <c r="E28">
-        <v>0.1411342926887906</v>
+        <v>0.01121512963967452</v>
       </c>
       <c r="F28">
-        <v>0.05956648342723149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03503273714672359</v>
+      </c>
+      <c r="G28">
+        <v>-0.02146972772977288</v>
+      </c>
+      <c r="H28">
+        <v>0.009860922187565593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02381492820134053</v>
+        <v>-0.01895822311710919</v>
       </c>
       <c r="C29">
-        <v>-0.001302304189915836</v>
+        <v>0.0003082308611314214</v>
       </c>
       <c r="D29">
-        <v>-0.02165786791207425</v>
+        <v>0.0180781634136615</v>
       </c>
       <c r="E29">
-        <v>-0.03352753113770221</v>
+        <v>0.01469510692172505</v>
       </c>
       <c r="F29">
-        <v>0.04947565346014002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01244697520440989</v>
+      </c>
+      <c r="G29">
+        <v>-0.03894279202368316</v>
+      </c>
+      <c r="H29">
+        <v>-0.008112074897189316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.05201336322016752</v>
+        <v>-0.04002116040136578</v>
       </c>
       <c r="C30">
-        <v>0.07093311939683318</v>
+        <v>0.005096168854205435</v>
       </c>
       <c r="D30">
-        <v>-0.04240699073530221</v>
+        <v>0.09511362284258557</v>
       </c>
       <c r="E30">
-        <v>-0.05849684367067658</v>
+        <v>-0.03030892923563726</v>
       </c>
       <c r="F30">
-        <v>0.08448662217029004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04648157681042205</v>
+      </c>
+      <c r="G30">
+        <v>-0.05331145203025024</v>
+      </c>
+      <c r="H30">
+        <v>-0.07583739271024681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05523373491846265</v>
+        <v>-0.04684414909421259</v>
       </c>
       <c r="C31">
-        <v>0.03757397163774507</v>
+        <v>-0.008450444355976722</v>
       </c>
       <c r="D31">
-        <v>-0.01612976595942221</v>
+        <v>0.0317486065162107</v>
       </c>
       <c r="E31">
-        <v>-0.02536800346888494</v>
+        <v>-0.003028710576056008</v>
       </c>
       <c r="F31">
-        <v>0.03564150590030909</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.003990765159172672</v>
+      </c>
+      <c r="G31">
+        <v>-0.01798459778122785</v>
+      </c>
+      <c r="H31">
+        <v>-0.005558205411111531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02490021590085251</v>
+        <v>-0.01270891574560807</v>
       </c>
       <c r="C32">
-        <v>-0.01164735567741026</v>
+        <v>-0.01316717272593246</v>
       </c>
       <c r="D32">
-        <v>-0.05100609538847269</v>
+        <v>0.01208312298420551</v>
       </c>
       <c r="E32">
-        <v>-0.05473800279817538</v>
+        <v>0.02989065042307531</v>
       </c>
       <c r="F32">
-        <v>0.04898478954972912</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03455968434266572</v>
+      </c>
+      <c r="G32">
+        <v>-0.03677665509303129</v>
+      </c>
+      <c r="H32">
+        <v>-0.05062066784166749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03216429265729794</v>
+        <v>-0.02753778647462476</v>
       </c>
       <c r="C33">
-        <v>0.04312878516277287</v>
+        <v>0.001259967169583195</v>
       </c>
       <c r="D33">
-        <v>-0.05184224795121191</v>
+        <v>0.04723315110641938</v>
       </c>
       <c r="E33">
-        <v>-0.02163670296798532</v>
+        <v>-0.02048534418208741</v>
       </c>
       <c r="F33">
-        <v>0.06145569802230212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0002260900147029597</v>
+      </c>
+      <c r="G33">
+        <v>-0.04223258064370105</v>
+      </c>
+      <c r="H33">
+        <v>-0.05567357841796299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03330490255355818</v>
+        <v>-0.02444358982228767</v>
       </c>
       <c r="C34">
-        <v>0.01158060559142897</v>
+        <v>-0.01709353266513084</v>
       </c>
       <c r="D34">
-        <v>-0.0286051066519617</v>
+        <v>0.04592889922980815</v>
       </c>
       <c r="E34">
-        <v>-0.0432426212572808</v>
+        <v>0.01293723087831999</v>
       </c>
       <c r="F34">
-        <v>0.03544911039318169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01693320649983969</v>
+      </c>
+      <c r="G34">
+        <v>-0.01150183803756752</v>
+      </c>
+      <c r="H34">
+        <v>-0.03686000478511085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01727987564709191</v>
+        <v>-0.01678017048949648</v>
       </c>
       <c r="C36">
-        <v>-0.001012832411061059</v>
+        <v>0.006774937702723237</v>
       </c>
       <c r="D36">
-        <v>-0.01595790569380286</v>
+        <v>0.006765418136443106</v>
       </c>
       <c r="E36">
-        <v>-0.01665930223353775</v>
+        <v>0.008838401031220527</v>
       </c>
       <c r="F36">
-        <v>0.02839739310915072</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.00106722141255074</v>
+      </c>
+      <c r="G36">
+        <v>-0.01845673292697503</v>
+      </c>
+      <c r="H36">
+        <v>-0.0187690862753134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.008212090188339433</v>
+        <v>-0.02795866176234785</v>
       </c>
       <c r="C38">
-        <v>0.005862958551085234</v>
+        <v>-0.01519301923164084</v>
       </c>
       <c r="D38">
-        <v>-0.007236117148923472</v>
+        <v>0.01493818325055491</v>
       </c>
       <c r="E38">
-        <v>0.02075892117471704</v>
+        <v>-0.0002043657646395608</v>
       </c>
       <c r="F38">
-        <v>0.04224677396197413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01010913906356091</v>
+      </c>
+      <c r="G38">
+        <v>-0.01870061504624054</v>
+      </c>
+      <c r="H38">
+        <v>-0.0448088160561609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02694166423721309</v>
+        <v>-0.009728196519646751</v>
       </c>
       <c r="C39">
-        <v>0.019298992463266</v>
+        <v>-0.004600290384941487</v>
       </c>
       <c r="D39">
-        <v>-0.05151501034274908</v>
+        <v>0.08931158576055974</v>
       </c>
       <c r="E39">
-        <v>-0.04174869424870492</v>
+        <v>-0.007538757370560486</v>
       </c>
       <c r="F39">
-        <v>0.04715437915479683</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01716967676481463</v>
+      </c>
+      <c r="G39">
+        <v>-0.03295525711939176</v>
+      </c>
+      <c r="H39">
+        <v>-0.08006141724447589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0195832796271256</v>
+        <v>-0.02649298879844605</v>
       </c>
       <c r="C40">
-        <v>0.04775118754534745</v>
+        <v>0.0006781379710417136</v>
       </c>
       <c r="D40">
-        <v>-0.01294376275637017</v>
+        <v>0.03572997961632285</v>
       </c>
       <c r="E40">
-        <v>-0.03824424928872595</v>
+        <v>-0.02277996204229795</v>
       </c>
       <c r="F40">
-        <v>0.0518912676595621</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03529446927993995</v>
+      </c>
+      <c r="G40">
+        <v>-0.01731635019823766</v>
+      </c>
+      <c r="H40">
+        <v>-0.06712505640047463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.004889700122742334</v>
+        <v>-0.01392041476318171</v>
       </c>
       <c r="C41">
-        <v>-0.0006568398415889304</v>
+        <v>0.002395800843582548</v>
       </c>
       <c r="D41">
-        <v>-0.01441199639945448</v>
+        <v>-0.0114905476538395</v>
       </c>
       <c r="E41">
-        <v>0.003574580768156621</v>
+        <v>0.003463266765050478</v>
       </c>
       <c r="F41">
-        <v>0.004799607101271466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006023982931307059</v>
+      </c>
+      <c r="G41">
+        <v>0.0008965214027720333</v>
+      </c>
+      <c r="H41">
+        <v>-5.260109662984138e-05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2315469208072032</v>
+        <v>-0.1334311316789514</v>
       </c>
       <c r="C42">
-        <v>0.2158605510051873</v>
+        <v>0.08195507428466249</v>
       </c>
       <c r="D42">
-        <v>-0.5190689870337539</v>
+        <v>0.2373256143163553</v>
       </c>
       <c r="E42">
-        <v>0.705307504968974</v>
+        <v>-0.2507123585777332</v>
       </c>
       <c r="F42">
-        <v>-0.2829411252158249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8820065704055094</v>
+      </c>
+      <c r="G42">
+        <v>0.2406531992688001</v>
+      </c>
+      <c r="H42">
+        <v>-0.01437491939883006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003564149246544435</v>
+        <v>-0.01473707978455375</v>
       </c>
       <c r="C43">
-        <v>0.003111848675882859</v>
+        <v>0.00265099253804397</v>
       </c>
       <c r="D43">
-        <v>-0.01461916261268392</v>
+        <v>-0.007910830432868188</v>
       </c>
       <c r="E43">
-        <v>-0.0006804403409617262</v>
+        <v>-0.0004939191278930885</v>
       </c>
       <c r="F43">
-        <v>0.02431548587444805</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003844735153112544</v>
+      </c>
+      <c r="G43">
+        <v>-0.0001806053218764702</v>
+      </c>
+      <c r="H43">
+        <v>-0.007199450772084917</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02376679808015335</v>
+        <v>-0.01433306161420905</v>
       </c>
       <c r="C44">
-        <v>-0.001863054675888547</v>
+        <v>-0.004469200248979774</v>
       </c>
       <c r="D44">
-        <v>-0.03936380287667476</v>
+        <v>0.04463521824237921</v>
       </c>
       <c r="E44">
-        <v>-0.0139779447425008</v>
+        <v>0.01147225427576698</v>
       </c>
       <c r="F44">
-        <v>0.09777178551733605</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.001133883141520639</v>
+      </c>
+      <c r="G44">
+        <v>-0.04084194036306001</v>
+      </c>
+      <c r="H44">
+        <v>-0.0631087648022329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0219347777302789</v>
+        <v>-0.01120991063467868</v>
       </c>
       <c r="C46">
-        <v>0.01111614192773115</v>
+        <v>0.006108452823690384</v>
       </c>
       <c r="D46">
-        <v>-0.04093336829016746</v>
+        <v>0.01666170430444703</v>
       </c>
       <c r="E46">
-        <v>-0.03176806427511147</v>
+        <v>0.002277973133063781</v>
       </c>
       <c r="F46">
-        <v>0.05971066590272354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.006810879499687492</v>
+      </c>
+      <c r="G46">
+        <v>-0.0424977829452074</v>
+      </c>
+      <c r="H46">
+        <v>-0.01044692285159032</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.08283147538224116</v>
+        <v>-0.06447674331843783</v>
       </c>
       <c r="C47">
-        <v>0.04807055099408284</v>
+        <v>-0.02302925135719083</v>
       </c>
       <c r="D47">
-        <v>-0.01253940044264143</v>
+        <v>0.06016825163987449</v>
       </c>
       <c r="E47">
-        <v>-0.0369959606525573</v>
+        <v>0.005617147772539002</v>
       </c>
       <c r="F47">
-        <v>0.01435688241794544</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01063009746350717</v>
+      </c>
+      <c r="G47">
+        <v>0.006878297560922497</v>
+      </c>
+      <c r="H47">
+        <v>0.0235899473286078</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01889481808158935</v>
+        <v>-0.01851683110663555</v>
       </c>
       <c r="C48">
-        <v>0.01004921411274341</v>
+        <v>-0.004260951166604845</v>
       </c>
       <c r="D48">
-        <v>-0.02102006311808251</v>
+        <v>0.01535518288660685</v>
       </c>
       <c r="E48">
-        <v>-0.01878427221115801</v>
+        <v>0.002220229252333051</v>
       </c>
       <c r="F48">
-        <v>0.03370183675832653</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.006079945433025875</v>
+      </c>
+      <c r="G48">
+        <v>-0.01911582420560903</v>
+      </c>
+      <c r="H48">
+        <v>-0.02055026958170079</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08538551770608645</v>
+        <v>-0.06784807208482799</v>
       </c>
       <c r="C50">
-        <v>0.03249082840709414</v>
+        <v>-0.02098695904605029</v>
       </c>
       <c r="D50">
-        <v>-0.03174135096026894</v>
+        <v>0.05592600559941034</v>
       </c>
       <c r="E50">
-        <v>-0.03419199310935854</v>
+        <v>0.01654928786367203</v>
       </c>
       <c r="F50">
-        <v>0.02334837585697982</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.00500078435285848</v>
+      </c>
+      <c r="G50">
+        <v>-0.003165782587151789</v>
+      </c>
+      <c r="H50">
+        <v>0.01148733474036696</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01997640393785058</v>
+        <v>-0.01646373853784364</v>
       </c>
       <c r="C51">
-        <v>0.005372911069846185</v>
+        <v>0.002007709348779688</v>
       </c>
       <c r="D51">
-        <v>-0.0007041668470775728</v>
+        <v>0.01138487497750198</v>
       </c>
       <c r="E51">
-        <v>0.001323969176451146</v>
+        <v>0.007847096690913753</v>
       </c>
       <c r="F51">
-        <v>0.08772199435425418</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.00203497196190119</v>
+      </c>
+      <c r="G51">
+        <v>-0.03431545171820217</v>
+      </c>
+      <c r="H51">
+        <v>-0.04682406453435774</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09138237218330975</v>
+        <v>-0.08114447680799856</v>
       </c>
       <c r="C53">
-        <v>0.0510523944159838</v>
+        <v>-0.02942435417667905</v>
       </c>
       <c r="D53">
-        <v>-0.01660476133664907</v>
+        <v>0.09399604663372244</v>
       </c>
       <c r="E53">
-        <v>-0.05020943097248797</v>
+        <v>0.01134976165994426</v>
       </c>
       <c r="F53">
-        <v>-0.0367866601460508</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02796240955014877</v>
+      </c>
+      <c r="G53">
+        <v>0.03605769274277423</v>
+      </c>
+      <c r="H53">
+        <v>0.0270502822183822</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02145004040766376</v>
+        <v>-0.02776233407196243</v>
       </c>
       <c r="C54">
-        <v>-0.000637194180971413</v>
+        <v>-0.007550607485846373</v>
       </c>
       <c r="D54">
-        <v>-0.01241740896694209</v>
+        <v>-0.007786653455967713</v>
       </c>
       <c r="E54">
-        <v>-0.02428788464217761</v>
+        <v>0.008309378860238933</v>
       </c>
       <c r="F54">
-        <v>0.03415038578176278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.002078016306704926</v>
+      </c>
+      <c r="G54">
+        <v>-0.03679288937544807</v>
+      </c>
+      <c r="H54">
+        <v>-0.004520438230240384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08867884764031109</v>
+        <v>-0.06478804767513421</v>
       </c>
       <c r="C55">
-        <v>0.04351905198159468</v>
+        <v>-0.02616555605198386</v>
       </c>
       <c r="D55">
-        <v>-0.02945824399571025</v>
+        <v>0.08818608821067109</v>
       </c>
       <c r="E55">
-        <v>-0.05256865769256529</v>
+        <v>0.01287992553027426</v>
       </c>
       <c r="F55">
-        <v>-0.03881204392553553</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02022983006385455</v>
+      </c>
+      <c r="G55">
+        <v>0.01682294064424164</v>
+      </c>
+      <c r="H55">
+        <v>0.03706082307046205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1293213790896652</v>
+        <v>-0.1096190333326206</v>
       </c>
       <c r="C56">
-        <v>0.07612047949551352</v>
+        <v>-0.04452454875351713</v>
       </c>
       <c r="D56">
-        <v>0.01343554572701086</v>
+        <v>0.1179418401989527</v>
       </c>
       <c r="E56">
-        <v>-0.08558372440389073</v>
+        <v>0.01191480603522019</v>
       </c>
       <c r="F56">
-        <v>-0.07324160234404924</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05214584036279983</v>
+      </c>
+      <c r="G56">
+        <v>0.06653950264763181</v>
+      </c>
+      <c r="H56">
+        <v>0.06233401607937388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03920543000407727</v>
+        <v>-0.03068111932914716</v>
       </c>
       <c r="C57">
-        <v>0.0346698211780133</v>
+        <v>0.01423785639449441</v>
       </c>
       <c r="D57">
-        <v>-0.02323496637766866</v>
+        <v>0.03712264376091879</v>
       </c>
       <c r="E57">
-        <v>0.002796690913952297</v>
+        <v>-0.01090619349210454</v>
       </c>
       <c r="F57">
-        <v>0.04901765175920447</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.003091198863240685</v>
+      </c>
+      <c r="G57">
+        <v>-0.06647236632939101</v>
+      </c>
+      <c r="H57">
+        <v>-0.05342827755580784</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1523662699180117</v>
+        <v>-0.1249146617949966</v>
       </c>
       <c r="C58">
-        <v>0.2010837561718492</v>
+        <v>-0.03704407553267043</v>
       </c>
       <c r="D58">
-        <v>-0.1809499553927711</v>
+        <v>0.1797435298651299</v>
       </c>
       <c r="E58">
-        <v>-0.0802988988768846</v>
+        <v>-0.2540727199134799</v>
       </c>
       <c r="F58">
-        <v>0.5060782896248956</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.09838573451944767</v>
+      </c>
+      <c r="G58">
+        <v>-0.813175543802226</v>
+      </c>
+      <c r="H58">
+        <v>0.3730694008983917</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0525550315522728</v>
+        <v>-0.1892699730253377</v>
       </c>
       <c r="C59">
-        <v>0.02784803851841971</v>
+        <v>-0.006461566008081682</v>
       </c>
       <c r="D59">
-        <v>0.1562646411259831</v>
+        <v>-0.1971038636285967</v>
       </c>
       <c r="E59">
-        <v>0.1017825248158491</v>
+        <v>-0.00593880228089854</v>
       </c>
       <c r="F59">
-        <v>0.08416339581074375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.002545717105343463</v>
+      </c>
+      <c r="G59">
+        <v>-0.02042609583812824</v>
+      </c>
+      <c r="H59">
+        <v>-0.02205255978163475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1320062313258437</v>
+        <v>-0.2045961411112306</v>
       </c>
       <c r="C60">
-        <v>0.115886011896339</v>
+        <v>-0.02290545343050979</v>
       </c>
       <c r="D60">
-        <v>-0.006222149581404718</v>
+        <v>0.03816115841800354</v>
       </c>
       <c r="E60">
-        <v>0.03441831971566466</v>
+        <v>-0.05961850153000286</v>
       </c>
       <c r="F60">
-        <v>0.1645020864698437</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.06631446508523633</v>
+      </c>
+      <c r="G60">
+        <v>-0.0249612503350167</v>
+      </c>
+      <c r="H60">
+        <v>-0.3626048476241371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02119004201835833</v>
+        <v>-0.01634436486032116</v>
       </c>
       <c r="C61">
-        <v>0.01042639263717492</v>
+        <v>-0.007996885250258379</v>
       </c>
       <c r="D61">
-        <v>-0.03628175885645555</v>
+        <v>0.05896899584652095</v>
       </c>
       <c r="E61">
-        <v>-0.02585576490543796</v>
+        <v>0.002454874467706867</v>
       </c>
       <c r="F61">
-        <v>0.01531628899044913</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02004154796883854</v>
+      </c>
+      <c r="G61">
+        <v>-0.02341157791949218</v>
+      </c>
+      <c r="H61">
+        <v>-0.05601394336490582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01285042499005305</v>
+        <v>-0.009357635960274202</v>
       </c>
       <c r="C63">
-        <v>0.005985899118763361</v>
+        <v>0.002697433588561251</v>
       </c>
       <c r="D63">
-        <v>-0.02918242543327603</v>
+        <v>0.02455089198490315</v>
       </c>
       <c r="E63">
-        <v>-0.02072004163598905</v>
+        <v>0.006610506551038991</v>
       </c>
       <c r="F63">
-        <v>0.01077048498072238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.009536358705166637</v>
+      </c>
+      <c r="G63">
+        <v>-0.01409327653834</v>
+      </c>
+      <c r="H63">
+        <v>-0.01645461419904142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03488015432886941</v>
+        <v>-0.03710876800740795</v>
       </c>
       <c r="C64">
-        <v>0.003141531466229827</v>
+        <v>-0.006956847219712607</v>
       </c>
       <c r="D64">
-        <v>-0.02836774620503919</v>
+        <v>0.04017522436461035</v>
       </c>
       <c r="E64">
-        <v>-0.03284898558412949</v>
+        <v>0.01314985386415744</v>
       </c>
       <c r="F64">
-        <v>0.02543378714661607</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.003463468548720679</v>
+      </c>
+      <c r="G64">
+        <v>0.006337964386736714</v>
+      </c>
+      <c r="H64">
+        <v>-0.05064529406503802</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03732140158421762</v>
+        <v>-0.03989673639319577</v>
       </c>
       <c r="C65">
-        <v>0.01432120233848726</v>
+        <v>-0.0001391565444833505</v>
       </c>
       <c r="D65">
-        <v>-0.0216474681581698</v>
+        <v>0.07165444196738177</v>
       </c>
       <c r="E65">
-        <v>-0.02734178521432054</v>
+        <v>0.006831446557262691</v>
       </c>
       <c r="F65">
-        <v>0.00351684958379838</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03998199718320555</v>
+      </c>
+      <c r="G65">
+        <v>0.003227972235447181</v>
+      </c>
+      <c r="H65">
+        <v>-0.07186800131217101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03239195627383745</v>
+        <v>-0.01832876629578186</v>
       </c>
       <c r="C66">
-        <v>0.03029379919955001</v>
+        <v>-0.01130819963760989</v>
       </c>
       <c r="D66">
-        <v>-0.04829662368693189</v>
+        <v>0.1130177024860136</v>
       </c>
       <c r="E66">
-        <v>-0.06238193558490133</v>
+        <v>-0.008378845747559208</v>
       </c>
       <c r="F66">
-        <v>0.0303369080809016</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03921810189085459</v>
+      </c>
+      <c r="G66">
+        <v>-0.02997383171336756</v>
+      </c>
+      <c r="H66">
+        <v>-0.08318130781715698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01789183226240441</v>
+        <v>-0.04817897211781335</v>
       </c>
       <c r="C67">
-        <v>0.01541607964923681</v>
+        <v>-0.01653517600343548</v>
       </c>
       <c r="D67">
-        <v>0.00572058127123241</v>
+        <v>0.01924328115752399</v>
       </c>
       <c r="E67">
-        <v>0.01705699497638438</v>
+        <v>-0.002030261419130567</v>
       </c>
       <c r="F67">
-        <v>0.02548685231225008</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.02042235653500781</v>
+      </c>
+      <c r="G67">
+        <v>-0.009520331720902882</v>
+      </c>
+      <c r="H67">
+        <v>-0.04244586139664535</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06709352142918032</v>
+        <v>-0.1883201207432047</v>
       </c>
       <c r="C68">
-        <v>0.02393199899365724</v>
+        <v>0.01629805391391828</v>
       </c>
       <c r="D68">
-        <v>0.1691492836180614</v>
+        <v>-0.2184643496580318</v>
       </c>
       <c r="E68">
-        <v>0.1109643561107903</v>
+        <v>-0.006594842113075029</v>
       </c>
       <c r="F68">
-        <v>0.07341073583052091</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04120848015341695</v>
+      </c>
+      <c r="G68">
+        <v>-0.03239676739144173</v>
+      </c>
+      <c r="H68">
+        <v>0.05402383444605569</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06014794882101986</v>
+        <v>-0.05981010265534503</v>
       </c>
       <c r="C69">
-        <v>0.03853396080785802</v>
+        <v>-0.02527057229806236</v>
       </c>
       <c r="D69">
-        <v>-0.004546057957669369</v>
+        <v>0.05162696546620447</v>
       </c>
       <c r="E69">
-        <v>-0.04177502996342857</v>
+        <v>0.003879006459347745</v>
       </c>
       <c r="F69">
-        <v>0.009293954638083036</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02797211510230562</v>
+      </c>
+      <c r="G69">
+        <v>0.01049051363004017</v>
+      </c>
+      <c r="H69">
+        <v>-0.01182372379427946</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06952094558894301</v>
+        <v>-0.1709804749615649</v>
       </c>
       <c r="C71">
-        <v>0.03277263240315493</v>
+        <v>0.005168600812108752</v>
       </c>
       <c r="D71">
-        <v>0.1670736121560071</v>
+        <v>-0.1765310046771255</v>
       </c>
       <c r="E71">
-        <v>0.1606557570053402</v>
+        <v>-0.01369732671855394</v>
       </c>
       <c r="F71">
-        <v>0.08034920040952077</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.05075072653187671</v>
+      </c>
+      <c r="G71">
+        <v>-0.0370169131091335</v>
+      </c>
+      <c r="H71">
+        <v>0.02182424801253644</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1003758639339658</v>
+        <v>-0.06935653608049411</v>
       </c>
       <c r="C72">
-        <v>0.07388985021977587</v>
+        <v>-0.03301804845841702</v>
       </c>
       <c r="D72">
-        <v>-0.01397197491462256</v>
+        <v>0.08762939333568225</v>
       </c>
       <c r="E72">
-        <v>-0.07832359173117259</v>
+        <v>-0.01463436612573569</v>
       </c>
       <c r="F72">
-        <v>0.07466801316471362</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.06882853662301239</v>
+      </c>
+      <c r="G72">
+        <v>-0.01606158927120632</v>
+      </c>
+      <c r="H72">
+        <v>-0.1224841794606735</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1721747942683849</v>
+        <v>-0.2665605808557528</v>
       </c>
       <c r="C73">
-        <v>0.1871985897700331</v>
+        <v>-0.03338788422126569</v>
       </c>
       <c r="D73">
-        <v>0.01344294609636372</v>
+        <v>0.113105100494106</v>
       </c>
       <c r="E73">
-        <v>0.08992202546037584</v>
+        <v>-0.1036044897175023</v>
       </c>
       <c r="F73">
-        <v>0.2030729109240699</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.08082047300560967</v>
+      </c>
+      <c r="G73">
+        <v>-0.03464797122832313</v>
+      </c>
+      <c r="H73">
+        <v>-0.4639254796155377</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.120819865772954</v>
+        <v>-0.1106795088051008</v>
       </c>
       <c r="C74">
-        <v>0.07330840864207404</v>
+        <v>-0.04484331074600813</v>
       </c>
       <c r="D74">
-        <v>-0.001837826727242307</v>
+        <v>0.1223389834765687</v>
       </c>
       <c r="E74">
-        <v>-0.05447794023461028</v>
+        <v>0.01227417118406591</v>
       </c>
       <c r="F74">
-        <v>-0.07571768415219352</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.04085053824271773</v>
+      </c>
+      <c r="G74">
+        <v>0.0508060408412136</v>
+      </c>
+      <c r="H74">
+        <v>0.02242210605488594</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2078415594403193</v>
+        <v>-0.2099975667710177</v>
       </c>
       <c r="C75">
-        <v>0.1398599409658841</v>
+        <v>-0.08208386333658746</v>
       </c>
       <c r="D75">
-        <v>0.04569351269115905</v>
+        <v>0.189243376381226</v>
       </c>
       <c r="E75">
-        <v>-0.1434009101251116</v>
+        <v>0.008329041171566565</v>
       </c>
       <c r="F75">
-        <v>-0.1064116217242318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.09287219745360736</v>
+      </c>
+      <c r="G75">
+        <v>0.1135439740294324</v>
+      </c>
+      <c r="H75">
+        <v>0.1360961046696832</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2571849344390069</v>
+        <v>-0.1714303700554996</v>
       </c>
       <c r="C76">
-        <v>0.1215044561413246</v>
+        <v>-0.0758089423152386</v>
       </c>
       <c r="D76">
-        <v>0.04068420572891727</v>
+        <v>0.1863683703243413</v>
       </c>
       <c r="E76">
-        <v>-0.1806715753852384</v>
+        <v>0.05176252535657273</v>
       </c>
       <c r="F76">
-        <v>-0.2016606127584692</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.08465603655014402</v>
+      </c>
+      <c r="G76">
+        <v>0.110156245462819</v>
+      </c>
+      <c r="H76">
+        <v>0.1203010976682817</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09970426610228525</v>
+        <v>-0.06051537495930005</v>
       </c>
       <c r="C77">
-        <v>0.07521224505909256</v>
+        <v>-0.0074292406036592</v>
       </c>
       <c r="D77">
-        <v>-0.1328391495212956</v>
+        <v>0.08706966208970765</v>
       </c>
       <c r="E77">
-        <v>-0.02063853577200141</v>
+        <v>-0.01854213384484392</v>
       </c>
       <c r="F77">
-        <v>0.1373189202657026</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02069027351923263</v>
+      </c>
+      <c r="G77">
+        <v>-0.07476501010787351</v>
+      </c>
+      <c r="H77">
+        <v>-0.02747340582084776</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06755824893568663</v>
+        <v>-0.03410017861073256</v>
       </c>
       <c r="C78">
-        <v>0.03544651059987033</v>
+        <v>-0.01008481046426784</v>
       </c>
       <c r="D78">
-        <v>-0.0925068799562677</v>
+        <v>0.07093111324996068</v>
       </c>
       <c r="E78">
-        <v>-0.0536869591835285</v>
+        <v>0.002959770886469796</v>
       </c>
       <c r="F78">
-        <v>0.08268443567649345</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01636127609572244</v>
+      </c>
+      <c r="G78">
+        <v>-0.05939776595337948</v>
+      </c>
+      <c r="H78">
+        <v>-0.09635576218930715</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5680966476458655</v>
+        <v>-0.1170997949819096</v>
       </c>
       <c r="C80">
-        <v>-0.8031089842708524</v>
+        <v>-0.02454139790866736</v>
       </c>
       <c r="D80">
-        <v>-0.0779952105159034</v>
+        <v>0.1005170664281642</v>
       </c>
       <c r="E80">
-        <v>0.03427562446834129</v>
+        <v>0.9112779828442774</v>
       </c>
       <c r="F80">
-        <v>0.04798219297738873</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.2746395370775525</v>
+      </c>
+      <c r="G80">
+        <v>-0.1900401116674332</v>
+      </c>
+      <c r="H80">
+        <v>-0.02650238063302001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1662801671164013</v>
+        <v>-0.1393998411326804</v>
       </c>
       <c r="C81">
-        <v>0.09474782542327657</v>
+        <v>-0.05344158716857229</v>
       </c>
       <c r="D81">
-        <v>0.04338079330678322</v>
+        <v>0.1250654318903693</v>
       </c>
       <c r="E81">
-        <v>-0.1177573036921693</v>
+        <v>0.01883422196685605</v>
       </c>
       <c r="F81">
-        <v>-0.1137667498357776</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.06012450041017348</v>
+      </c>
+      <c r="G81">
+        <v>0.0721639651284597</v>
+      </c>
+      <c r="H81">
+        <v>0.07988168357990769</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03157260484230458</v>
+        <v>-0.03045970946988356</v>
       </c>
       <c r="C83">
-        <v>0.02584034123418784</v>
+        <v>-0.003839009522104476</v>
       </c>
       <c r="D83">
-        <v>-0.0334883388209218</v>
+        <v>0.02830881650633287</v>
       </c>
       <c r="E83">
-        <v>-0.00172553685298046</v>
+        <v>-0.006857928612673975</v>
       </c>
       <c r="F83">
-        <v>0.06228069747793655</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.004370882539344137</v>
+      </c>
+      <c r="G83">
+        <v>-0.04053599125598584</v>
+      </c>
+      <c r="H83">
+        <v>-0.0439867671997408</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.230238182425394</v>
+        <v>-0.1970072650169759</v>
       </c>
       <c r="C85">
-        <v>0.1372338392125113</v>
+        <v>-0.06707165253754832</v>
       </c>
       <c r="D85">
-        <v>0.02974030750604086</v>
+        <v>0.1935779544447437</v>
       </c>
       <c r="E85">
-        <v>-0.13322487376147</v>
+        <v>0.006992230627661395</v>
       </c>
       <c r="F85">
-        <v>-0.1457057979820502</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.07804304009004741</v>
+      </c>
+      <c r="G85">
+        <v>0.1339007315509965</v>
+      </c>
+      <c r="H85">
+        <v>0.06845717889085179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007387404397502399</v>
+        <v>-0.01824547544694932</v>
       </c>
       <c r="C86">
-        <v>-0.001481252663209423</v>
+        <v>-0.00116058939869143</v>
       </c>
       <c r="D86">
-        <v>-0.06807844690555932</v>
+        <v>0.04099714645605622</v>
       </c>
       <c r="E86">
-        <v>-0.01762274101350431</v>
+        <v>0.004373141624038795</v>
       </c>
       <c r="F86">
-        <v>0.05416417515324023</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.007991366911996917</v>
+      </c>
+      <c r="G86">
+        <v>-0.04091832614458089</v>
+      </c>
+      <c r="H86">
+        <v>-0.09632179324807918</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03632323229227002</v>
+        <v>-0.01851440013868149</v>
       </c>
       <c r="C87">
-        <v>0.01921790463939452</v>
+        <v>-0.001242379767130363</v>
       </c>
       <c r="D87">
-        <v>-0.03258264794181784</v>
+        <v>0.04759621280772535</v>
       </c>
       <c r="E87">
-        <v>-0.01257945561508372</v>
+        <v>-0.002515207033561174</v>
       </c>
       <c r="F87">
-        <v>0.1058975933335405</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.005630598019687344</v>
+      </c>
+      <c r="G87">
+        <v>-0.07797059667226475</v>
+      </c>
+      <c r="H87">
+        <v>-0.07985919530142689</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.02029266881884824</v>
+        <v>-0.03920615044967739</v>
       </c>
       <c r="C88">
-        <v>-0.003237568800489868</v>
+        <v>0.01247619971429006</v>
       </c>
       <c r="D88">
-        <v>0.009752524066352715</v>
+        <v>0.02345685082034493</v>
       </c>
       <c r="E88">
-        <v>-0.0146914209209573</v>
+        <v>0.01797374280832529</v>
       </c>
       <c r="F88">
-        <v>-0.01552392930625015</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01612110252727943</v>
+      </c>
+      <c r="G88">
+        <v>0.005124834200233519</v>
+      </c>
+      <c r="H88">
+        <v>-0.01693676592746421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09780418112453748</v>
+        <v>-0.2972388046550012</v>
       </c>
       <c r="C89">
-        <v>0.05149524257793096</v>
+        <v>0.01116695372869189</v>
       </c>
       <c r="D89">
-        <v>0.2799287352004711</v>
+        <v>-0.3194713720551507</v>
       </c>
       <c r="E89">
-        <v>0.1858292231677684</v>
+        <v>-0.01157484663512153</v>
       </c>
       <c r="F89">
-        <v>0.1059757528145721</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02135180350145406</v>
+      </c>
+      <c r="G89">
+        <v>0.01818760407965808</v>
+      </c>
+      <c r="H89">
+        <v>-0.0116140315154665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08565668726578252</v>
+        <v>-0.2420531879701177</v>
       </c>
       <c r="C90">
-        <v>0.02014375493510704</v>
+        <v>0.01063449940282322</v>
       </c>
       <c r="D90">
-        <v>0.3033467622789368</v>
+        <v>-0.2864574409264975</v>
       </c>
       <c r="E90">
-        <v>0.2083462696187747</v>
+        <v>-0.001680273856603905</v>
       </c>
       <c r="F90">
-        <v>0.04904525973386381</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05494015948702725</v>
+      </c>
+      <c r="G90">
+        <v>-0.001690070019114588</v>
+      </c>
+      <c r="H90">
+        <v>0.05756211855480503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2621267988221112</v>
+        <v>-0.2099450162085959</v>
       </c>
       <c r="C91">
-        <v>0.1761849996646904</v>
+        <v>-0.07919695844894209</v>
       </c>
       <c r="D91">
-        <v>0.02979163180596174</v>
+        <v>0.1792536484141178</v>
       </c>
       <c r="E91">
-        <v>-0.1381642471983179</v>
+        <v>0.0011770449516941</v>
       </c>
       <c r="F91">
-        <v>-0.2371324497618964</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.08023376504240039</v>
+      </c>
+      <c r="G91">
+        <v>0.1343590122576978</v>
+      </c>
+      <c r="H91">
+        <v>0.1597783147651462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1503608041740129</v>
+        <v>-0.2731670648554987</v>
       </c>
       <c r="C92">
-        <v>0.06674164171275303</v>
+        <v>-0.05023646475161466</v>
       </c>
       <c r="D92">
-        <v>0.4218378494801145</v>
+        <v>-0.2080915006020404</v>
       </c>
       <c r="E92">
-        <v>0.08651776976578766</v>
+        <v>0.01251743248436077</v>
       </c>
       <c r="F92">
-        <v>-0.03706626210767811</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.01625006076530513</v>
+      </c>
+      <c r="G92">
+        <v>-0.02031433605719112</v>
+      </c>
+      <c r="H92">
+        <v>0.1305058322382074</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08205056933172974</v>
+        <v>-0.2711911182745553</v>
       </c>
       <c r="C93">
-        <v>0.05811065591146972</v>
+        <v>0.001353183065268015</v>
       </c>
       <c r="D93">
-        <v>0.3615587403072687</v>
+        <v>-0.2948811975687426</v>
       </c>
       <c r="E93">
-        <v>0.2777551774010944</v>
+        <v>-0.03189073289610663</v>
       </c>
       <c r="F93">
-        <v>0.05751278648591221</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.05154578568755781</v>
+      </c>
+      <c r="G93">
+        <v>0.006768549068174141</v>
+      </c>
+      <c r="H93">
+        <v>-0.005574298026269141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2541119252461962</v>
+        <v>-0.2562921872158788</v>
       </c>
       <c r="C94">
-        <v>0.1764176202108044</v>
+        <v>-0.07402993438455818</v>
       </c>
       <c r="D94">
-        <v>0.07802281573498517</v>
+        <v>0.1878640851157134</v>
       </c>
       <c r="E94">
-        <v>-0.2247684553477119</v>
+        <v>0.003543984577020295</v>
       </c>
       <c r="F94">
-        <v>-0.1811698882389365</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1847807294201475</v>
+      </c>
+      <c r="G94">
+        <v>0.2330555764624913</v>
+      </c>
+      <c r="H94">
+        <v>0.3744282527962341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.02037906916276603</v>
+        <v>-0.04486521502219757</v>
       </c>
       <c r="C95">
-        <v>0.08749524302013417</v>
+        <v>-0.02826732755651423</v>
       </c>
       <c r="D95">
-        <v>-0.06486368917869959</v>
+        <v>0.09269162629621853</v>
       </c>
       <c r="E95">
-        <v>-0.02411148498356885</v>
+        <v>-0.082067992966953</v>
       </c>
       <c r="F95">
-        <v>0.02928339837443035</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.003785971466993778</v>
+      </c>
+      <c r="G95">
+        <v>-0.03573275199857102</v>
+      </c>
+      <c r="H95">
+        <v>-0.05335021032411311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1342781636637023</v>
+        <v>-0.1848368270912284</v>
       </c>
       <c r="C98">
-        <v>0.119860332222241</v>
+        <v>-0.0490985323892544</v>
       </c>
       <c r="D98">
-        <v>0.009934518827111808</v>
+        <v>0.05302306574734496</v>
       </c>
       <c r="E98">
-        <v>0.07994732213084382</v>
+        <v>-0.07109058594899469</v>
       </c>
       <c r="F98">
-        <v>0.1562830350335931</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.02079060622745736</v>
+      </c>
+      <c r="G98">
+        <v>-0.07457518054707324</v>
+      </c>
+      <c r="H98">
+        <v>-0.3310679938048224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01045939633098569</v>
+        <v>-0.01305507368013882</v>
       </c>
       <c r="C101">
-        <v>-0.001492214167513831</v>
+        <v>0.001170485008108241</v>
       </c>
       <c r="D101">
-        <v>-0.05947562743129776</v>
+        <v>0.01924055735522241</v>
       </c>
       <c r="E101">
-        <v>-0.06110831885222767</v>
+        <v>0.002668347279700003</v>
       </c>
       <c r="F101">
-        <v>0.1685752903441909</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.01283370062670372</v>
+      </c>
+      <c r="G101">
+        <v>-0.1001189481571391</v>
+      </c>
+      <c r="H101">
+        <v>0.01438839084540685</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.106112673827079</v>
+        <v>-0.09746622063018272</v>
       </c>
       <c r="C102">
-        <v>0.06292544864434353</v>
+        <v>-0.02592135288302202</v>
       </c>
       <c r="D102">
-        <v>0.0105609896067519</v>
+        <v>0.09422880415773496</v>
       </c>
       <c r="E102">
-        <v>-0.07686477620470721</v>
+        <v>0.007202489281699169</v>
       </c>
       <c r="F102">
-        <v>-0.0895765425440843</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.04683689090241209</v>
+      </c>
+      <c r="G102">
+        <v>0.06442487804175713</v>
+      </c>
+      <c r="H102">
+        <v>0.05532343798336301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04243840682016316</v>
+        <v>-0.01354469820039607</v>
       </c>
       <c r="C103">
-        <v>0.01098954117791961</v>
+        <v>-0.004903775815924546</v>
       </c>
       <c r="D103">
-        <v>-0.01171998085270071</v>
+        <v>0.01771154988406103</v>
       </c>
       <c r="E103">
-        <v>-0.04267988262772095</v>
+        <v>0.01299799029424767</v>
       </c>
       <c r="F103">
-        <v>-0.003665433079539196</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.005063646128584141</v>
+      </c>
+      <c r="G103">
+        <v>-0.003430527983683597</v>
+      </c>
+      <c r="H103">
+        <v>0.0114101206225733</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.142320059944215</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.969160903361785</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1087983153005114</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03387534010514687</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1267861323820998</v>
+      </c>
+      <c r="G104">
+        <v>0.003987499330702663</v>
+      </c>
+      <c r="H104">
+        <v>0.04851569830023868</v>
       </c>
     </row>
   </sheetData>
